--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T22:42:19-04:00</t>
+    <t>2023-09-01T14:45:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>Based on IHE-ATNA.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2002,16 +2006,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -2025,10 +2029,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2039,7 +2043,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2048,19 +2052,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2110,13 +2114,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2145,10 +2149,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2159,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2168,16 +2172,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2228,19 +2232,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2263,10 +2267,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2277,28 +2281,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2348,19 +2352,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2383,10 +2387,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2397,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2409,16 +2413,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2444,13 +2448,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2468,19 +2472,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2503,21 +2507,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2529,16 +2533,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2588,25 +2592,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2623,14 +2627,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2649,16 +2653,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2708,7 +2712,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2726,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2743,14 +2747,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2769,16 +2773,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2828,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2840,13 +2844,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2863,14 +2867,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2883,25 +2887,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2950,7 +2954,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2962,13 +2966,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2985,10 +2989,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2996,32 +3000,32 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3046,13 +3050,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -3070,34 +3074,34 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3105,10 +3109,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3119,7 +3123,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3131,13 +3135,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3188,13 +3192,13 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
@@ -3206,7 +3210,7 @@
         <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
@@ -3223,14 +3227,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3249,16 +3253,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3296,19 +3300,19 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3320,13 +3324,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3343,10 +3347,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3357,31 +3361,31 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3430,25 +3434,25 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3465,10 +3469,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3479,7 +3483,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3488,19 +3492,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3550,25 +3554,25 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3585,10 +3589,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3599,36 +3603,36 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>38</v>
@@ -3670,25 +3674,25 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3705,10 +3709,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3719,29 +3723,29 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3790,25 +3794,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3825,10 +3829,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3839,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3848,22 +3852,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3912,25 +3916,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3947,10 +3951,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3964,26 +3968,26 @@
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4008,13 +4012,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4032,7 +4036,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4044,19 +4048,19 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -4067,10 +4071,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4081,7 +4085,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4093,13 +4097,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4150,13 +4154,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -4168,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4185,14 +4189,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4211,16 +4215,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4258,19 +4262,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4282,13 +4286,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4305,10 +4309,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4319,31 +4323,31 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4392,25 +4396,25 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -4427,10 +4431,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4441,7 +4445,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4450,19 +4454,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4512,25 +4516,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4547,10 +4551,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4558,32 +4562,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4632,25 +4636,25 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4681,29 +4685,29 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4752,25 +4756,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4787,10 +4791,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4801,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4810,22 +4814,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4874,25 +4878,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4909,10 +4913,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4920,32 +4924,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4970,13 +4974,13 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>38</v>
@@ -4994,31 +4998,31 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -5029,10 +5033,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5043,10 +5047,10 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
@@ -5055,16 +5059,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5114,45 +5118,45 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5160,34 +5164,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5236,45 +5240,45 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5285,28 +5289,28 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5332,13 +5336,13 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>38</v>
@@ -5356,31 +5360,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5391,10 +5395,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5405,7 +5409,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5414,16 +5418,16 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5474,31 +5478,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5509,10 +5513,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5532,19 +5536,19 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5570,13 +5574,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5594,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5606,47 +5610,47 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>38</v>
@@ -5655,19 +5659,19 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5716,10 +5720,10 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5728,33 +5732,33 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5765,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5777,13 +5781,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5834,13 +5838,13 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
@@ -5852,7 +5856,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5869,14 +5873,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5895,16 +5899,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5954,7 +5958,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5966,13 +5970,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5989,14 +5993,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6009,25 +6013,25 @@
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -6076,7 +6080,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6088,13 +6092,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6111,10 +6115,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6125,7 +6129,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -6137,13 +6141,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6170,13 +6174,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -6194,45 +6198,45 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6255,19 +6259,19 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6292,13 +6296,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6316,7 +6320,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6328,68 +6332,68 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6438,45 +6442,45 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6487,7 +6491,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6499,17 +6503,17 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6558,34 +6562,34 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6593,10 +6597,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6607,7 +6611,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6619,17 +6623,17 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6678,34 +6682,34 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>38</v>
@@ -6713,10 +6717,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6724,10 +6728,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6736,22 +6740,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6800,31 +6804,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6835,10 +6839,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6849,7 +6853,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6861,13 +6865,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6918,45 +6922,45 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6979,19 +6983,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7040,7 +7044,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7052,33 +7056,33 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7089,7 +7093,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -7101,17 +7105,17 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7136,13 +7140,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7160,31 +7164,31 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7195,10 +7199,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7209,10 +7213,10 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
@@ -7221,13 +7225,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7278,31 +7282,31 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7313,10 +7317,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7327,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7339,13 +7343,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7396,13 +7400,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -7414,7 +7418,7 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7431,14 +7435,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7457,16 +7461,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7516,7 +7520,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7528,13 +7532,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7551,14 +7555,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7571,25 +7575,25 @@
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7638,7 +7642,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7650,13 +7654,13 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7673,10 +7677,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7684,13 +7688,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
@@ -7699,19 +7703,19 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7760,34 +7764,34 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>38</v>
@@ -7795,10 +7799,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7809,10 +7813,10 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>38</v>
@@ -7821,17 +7825,17 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7856,13 +7860,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7880,31 +7884,31 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -7915,10 +7919,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7941,16 +7945,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7976,13 +7980,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -8000,7 +8004,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8012,22 +8016,22 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -8035,10 +8039,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8046,13 +8050,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
@@ -8061,19 +8065,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8122,31 +8126,31 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8157,10 +8161,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8171,7 +8175,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -8183,13 +8187,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8240,13 +8244,13 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
@@ -8258,7 +8262,7 @@
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8275,14 +8279,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8301,16 +8305,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8360,7 +8364,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8372,13 +8376,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8395,14 +8399,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8415,25 +8419,25 @@
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8482,7 +8486,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8494,13 +8498,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8517,10 +8521,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8531,7 +8535,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8543,17 +8547,17 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8602,31 +8606,31 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8637,43 +8641,43 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8722,31 +8726,31 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8757,10 +8761,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8783,17 +8787,17 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8818,13 +8822,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8842,7 +8846,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8854,19 +8858,19 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8877,24 +8881,24 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8903,19 +8907,19 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8964,7 +8968,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8976,33 +8980,33 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9013,7 +9017,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -9025,13 +9029,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9082,13 +9086,13 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
@@ -9100,7 +9104,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -9117,14 +9121,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9143,16 +9147,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9202,7 +9206,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9214,13 +9218,13 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
@@ -9237,14 +9241,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9257,25 +9261,25 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9324,7 +9328,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9336,13 +9340,13 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9359,10 +9363,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9370,28 +9374,28 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9442,45 +9446,45 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9491,7 +9495,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9503,19 +9507,19 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9540,13 +9544,13 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9564,45 +9568,45 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9613,7 +9617,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9625,17 +9629,17 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9660,13 +9664,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9684,34 +9688,34 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>38</v>
@@ -9719,10 +9723,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9733,7 +9737,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9745,19 +9749,19 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9782,13 +9786,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9806,45 +9810,45 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AP66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9867,19 +9871,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -9904,13 +9908,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -9928,7 +9932,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9940,19 +9944,19 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>38</v>
@@ -9963,10 +9967,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9977,7 +9981,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9986,22 +9990,22 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10050,34 +10054,34 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>38</v>
@@ -10085,10 +10089,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10099,7 +10103,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10111,17 +10115,17 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10170,31 +10174,31 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10205,10 +10209,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10219,7 +10223,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10228,22 +10232,22 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10292,31 +10296,31 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10327,10 +10331,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10353,17 +10357,17 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10412,7 +10416,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10424,19 +10428,19 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -10447,10 +10451,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10461,7 +10465,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10473,13 +10477,13 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10530,13 +10534,13 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
@@ -10548,7 +10552,7 @@
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10565,14 +10569,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10591,16 +10595,16 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10650,7 +10654,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10662,13 +10666,13 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10685,14 +10689,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10705,25 +10709,25 @@
         <v>38</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10772,7 +10776,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10784,13 +10788,13 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10807,10 +10811,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10818,10 +10822,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10833,13 +10837,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10890,31 +10894,31 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>38</v>
@@ -10925,10 +10929,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10936,10 +10940,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10951,19 +10955,19 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11012,31 +11016,31 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>

--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:45:29-04:00</t>
+    <t>2023-10-31T17:56:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-AuditEventCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
